--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang10/1.XuLyBH/XLBH2310_NhatMinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang10/1.XuLyBH/XLBH2310_NhatMinh.xlsx
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X114"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1133,9 @@
       <c r="B6" s="38">
         <v>45230</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="38">
+        <v>45202</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>54</v>
       </c>
@@ -3139,6 +3141,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3150,13 +3159,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
